--- a/Experiments/PETA,TMAG_viscosity/PETA_TMAG_Solves.xlsx
+++ b/Experiments/PETA,TMAG_viscosity/PETA_TMAG_Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\PETA,TMAG_viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3A661-7835-41A2-818D-71803F45472D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618037E-6E07-41F9-82FB-37E4C0894A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,31 +1878,35 @@
 смесь]]</f>
         <v>0.14895076269699262</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="11"/>
+      <c r="Q7" s="12">
+        <v>4.7343000000000002</v>
+      </c>
+      <c r="R7" s="11">
+        <v>10.4138</v>
+      </c>
       <c r="S7" s="13">
         <f>Эксперимент[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.6795</v>
       </c>
       <c r="T7" s="14">
         <f>Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.1358999999999999</v>
       </c>
       <c r="U7" s="15">
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>11.413462719071363</v>
       </c>
       <c r="V7" s="16">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>16.204144098905193</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1910,38 +1914,44 @@
       <c r="B8" s="18">
         <v>0.2</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="22">
+        <v>27.1998</v>
+      </c>
+      <c r="D8" s="23">
+        <v>44.087200000000003</v>
+      </c>
       <c r="E8" s="28">
         <f>Эксперимент[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>16.887400000000003</v>
       </c>
       <c r="F8" s="29">
         <f>Эксперимент[[#This Row],[m0
 смесь]]*(1-P7)</f>
-        <v>0</v>
+        <v>14.372008890030809</v>
       </c>
       <c r="G8" s="29">
         <f>Эксперимент[[#This Row],[m0
 смесь]]*P7</f>
-        <v>0</v>
+        <v>2.5153911099691935</v>
       </c>
       <c r="H8" s="10">
         <f>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1253.0361773703594</v>
+      </c>
+      <c r="I8" s="7">
+        <v>45.110999999999997</v>
+      </c>
       <c r="J8" s="9">
         <f>Эксперимент[[#This Row],[m1 
 смесь
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>17.911199999999997</v>
       </c>
       <c r="K8" s="19">
         <f>(Эксперимент[[#This Row],[m0
@@ -1949,26 +1959,26 @@
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%
 спирт ]])</f>
-        <v>0</v>
+        <v>1.0776111125385091</v>
       </c>
       <c r="L8" s="20">
         <f>Эксперимент[[#This Row],[m1
 смесь]]-Эксперимент[[#This Row],[m0
 смесь]]</f>
-        <v>0</v>
+        <v>1.0237999999999943</v>
       </c>
       <c r="M8" s="11">
         <f>Эксперимент[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>45.110999999999997</v>
       </c>
       <c r="N8" s="9">
         <f>Эксперимент[[#This Row],[m2
 смесь
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>17.911199999999997</v>
       </c>
       <c r="O8" s="21">
         <f>Эксперимент[[#This Row],[m2
@@ -1978,12 +1988,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P8" s="27" t="e">
+      <c r="P8" s="27">
         <f>(Эксперимент[[#This Row],[m0
 спирт]]+Эксперимент[[#This Row],[m+
 спирт]])/Эксперимент[[#This Row],[m2
 смесь]]</f>
-        <v>#DIV/0!</v>
+        <v>0.19759653791868709</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="11"/>
@@ -1999,17 +2009,17 @@
 смесь     ]]/Плотности_доп[V пик мл]</f>
         <v>0</v>
       </c>
-      <c r="U8" s="15" t="e">
+      <c r="U8" s="15">
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/Experiments/PETA,TMAG_viscosity/PETA_TMAG_Solves.xlsx
+++ b/Experiments/PETA,TMAG_viscosity/PETA_TMAG_Solves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\PETA,TMAG_viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618037E-6E07-41F9-82FB-37E4C0894A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17911F3A-D097-4B2A-9518-E558AC5B1881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>ro 
 спирт</t>
@@ -128,6 +128,9 @@
   <si>
     <t>С основа
 М</t>
+  </si>
+  <si>
+    <t>DMAG + бутанол1</t>
   </si>
 </sst>
 </file>
@@ -420,18 +423,54 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -776,30 +815,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -895,6 +910,456 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -909,7 +1374,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="B3:V8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="B3:V8" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="B3:V8" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -934,68 +1399,68 @@
     <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="21">
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%_x000a_спирт " dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%_x000a_спирт " dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="44">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_основа" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_основа" dataDxfId="1">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*(1-P3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="43">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*P3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="42">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смесь" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смесь" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="39">
       <calculatedColumnFormula>(Эксперимент[[#This Row],[m0
 смесь]]*Эксперимент[[#This Row],[w%
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирт" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирт" dataDxfId="38">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m1
 смесь]]-Эксперимент[[#This Row],[m0
 смесь]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="13">
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="37">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смесь" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_основа" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="m3 г_x000a_пик" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="m3 г_x000a_смесь     " dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смесь" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_основа" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="m3 г_x000a_пик" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="m3 г_x000a_смесь     " dataDxfId="31">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент[[#This Row],[m3 г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="6">
+    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="30">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="5">
+    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="29">
       <calculatedColumnFormula>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С основа_x000a_М" dataDxfId="4">
+    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С основа_x000a_М" dataDxfId="28">
       <calculatedColumnFormula>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</calculatedColumnFormula>
@@ -1006,19 +1471,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="H1:H2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="H1:H2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="H1:H2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="Q1:S2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="Q1:S2" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="Q1:S2" xr:uid="{06838B1B-BD17-4A05-B569-F0CD134B544A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1030,6 +1495,102 @@
     <tableColumn id="3" xr3:uid="{FAAFFE1A-3167-443F-8CC6-CA14DE9F9D75}" name="M PETA г/моль"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{135B867F-D8CD-447A-8E8A-8E6EF0A34F0B}" name="Эксперимент4" displayName="Эксперимент4" ref="B10:V15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B10:V15" xr:uid="{5C9C155A-EA36-4613-9A58-A0552F934C86}"/>
+  <tableColumns count="21">
+    <tableColumn id="6" xr3:uid="{9B58110A-1E2E-49D7-8736-B143A65AD081}" name="w%_x000a_спирт " dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{BC2FA3FB-D4F1-48F3-913D-1D1A514F7F89}" name="m_x000a_стакан" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EAD83506-1932-4D98-80B3-87D93ECEEAF8}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9411E5F6-21B0-4559-8CE1-0A3BA332DC20}" name="m0_x000a_смесь" dataDxfId="18">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{423AC4A4-21BE-49FC-9433-167AFE642CC3}" name="m0_x000a_основа" dataDxfId="0">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
+смесь]]*(1-P10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DA6A591A-2853-4418-82E0-5CF32E1264DB}" name="m0_x000a_спирт" dataDxfId="17">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m0
+смесь]]*P10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BA76B9BC-9840-40ED-9785-A9539425F03E}" name="V+ т_x000a_спирт" dataDxfId="16">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{378D6E8D-B5AB-44E3-B915-CF55A6D074FB}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{CF39265A-C218-42B5-B840-9114ADF9A972}" name="m1_x000a_смесь" dataDxfId="14">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{135AD849-5AEA-4E9B-A064-899AB8205CD6}" name="m+ т_x000a_спирт" dataDxfId="13">
+      <calculatedColumnFormula>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{58D419CE-B8D7-41DC-BB4F-031B0EED3CC2}" name="m+_x000a_спирт" dataDxfId="12">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{C83597A6-A78F-4627-8C48-5B5B1199C79E}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="11">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{0FBADC72-0112-46D1-ABE4-7C1133AD7333}" name="m2_x000a_смесь" dataDxfId="10">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{FBB646F6-F7E9-4DA0-A18F-D5F45B1DDAA2}" name="m+_x000a_основа" dataDxfId="9">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A71C9B2E-9DE3-4A6F-AE67-99ACC0734AC4}" name="w%1 _x000a_" dataDxfId="8">
+      <calculatedColumnFormula>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{F5F29640-ABAD-46C6-8E71-A0892582CBE8}" name="m3 г_x000a_пик" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{B64E6BD3-AF85-4582-BD4F-677587B64137}" name="m3 г_x000a_смесь    _x000a_пик " dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{3959EE2F-BFF7-4AE3-B77C-44062C2E5D53}" name="m3 г_x000a_смесь     " dataDxfId="5">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{B4D7640C-FBB2-4A28-B283-B25E5AE69BD1}" name="ro_x000a_смесь г/мл   " dataDxfId="4">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{8F69145E-8AEE-4CCC-AE51-FC13903A6A48}" name="C спирт М " dataDxfId="3">
+      <calculatedColumnFormula>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{7FE6C2C6-CCCE-4DC1-B3A8-3168754E8355}" name="С основа_x000a_М" dataDxfId="2">
+      <calculatedColumnFormula>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1335,8 +1896,8 @@
   </sheetPr>
   <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,7 +2025,9 @@
         <v>22.572500000000002</v>
       </c>
       <c r="F4" s="29">
-        <v>9.3141999999999996</v>
+        <f>Эксперимент[[#This Row],[m0
+смесь]]</f>
+        <v>22.572500000000002</v>
       </c>
       <c r="G4" s="29">
         <v>0</v>
@@ -1995,40 +2558,655 @@
 смесь]]</f>
         <v>0.19759653791868709</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11"/>
+      <c r="Q8" s="12">
+        <v>4.7343999999999999</v>
+      </c>
+      <c r="R8" s="11">
+        <v>10.291600000000001</v>
+      </c>
       <c r="S8" s="13">
         <f>Эксперимент[[#This Row],[m3 г
 смесь    
 пик ]]-Эксперимент[[#This Row],[m3 г
 пик]]</f>
-        <v>0</v>
+        <v>5.5572000000000008</v>
       </c>
       <c r="T8" s="14">
         <f>Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>0</v>
+        <v>1.1114400000000002</v>
       </c>
       <c r="U8" s="15">
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>0</v>
+        <v>14.814941723174961</v>
       </c>
       <c r="V8" s="16">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[m3 г
 смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
-        <v>0</v>
+        <v>14.948930636220698</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:22" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>27.1568</v>
+      </c>
+      <c r="D11" s="23">
+        <v>33.708199999999998</v>
+      </c>
+      <c r="E11" s="28">
+        <f>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>6.5513999999999974</v>
+      </c>
+      <c r="F11" s="29">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>6.5513999999999974</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>33.708199999999998</v>
+      </c>
+      <c r="J11" s="9">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>6.5513999999999974</v>
+      </c>
+      <c r="K11" s="19">
+        <f>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <f>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>33.708199999999998</v>
+      </c>
+      <c r="N11" s="9">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>6.5513999999999974</v>
+      </c>
+      <c r="O11" s="21">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <f>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>4.7344999999999997</v>
+      </c>
+      <c r="R11" s="11">
+        <v>10.107200000000001</v>
+      </c>
+      <c r="S11" s="13">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</f>
+        <v>5.3727000000000009</v>
+      </c>
+      <c r="T11" s="14">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</f>
+        <v>1.0745400000000003</v>
+      </c>
+      <c r="U11" s="15">
+        <f>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <f>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
+        <v>18.011666499044555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="22">
+        <v>27.1568</v>
+      </c>
+      <c r="D12" s="23">
+        <v>39.681100000000001</v>
+      </c>
+      <c r="E12" s="28">
+        <f>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>12.5243</v>
+      </c>
+      <c r="F12" s="29">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*(1-P11)</f>
+        <v>12.5243</v>
+      </c>
+      <c r="G12" s="29">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*P11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</f>
+        <v>766.48102815177504</v>
+      </c>
+      <c r="I12" s="7">
+        <v>40.318800000000003</v>
+      </c>
+      <c r="J12" s="9">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>13.162000000000003</v>
+      </c>
+      <c r="K12" s="19">
+        <f>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</f>
+        <v>0.65917368421052647</v>
+      </c>
+      <c r="L12" s="20">
+        <f>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>0.63770000000000238</v>
+      </c>
+      <c r="M12" s="11">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>40.318800000000003</v>
+      </c>
+      <c r="N12" s="9">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>13.162000000000003</v>
+      </c>
+      <c r="O12" s="21">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <f>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</f>
+        <v>4.8450083573925107E-2</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <f>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <f>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="28">
+        <f>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*(1-P12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*P12</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <f>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27" t="e">
+        <f>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="13">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15" t="e">
+        <f>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="16" t="e">
+        <f>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28">
+        <f>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="29" t="e">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*(1-P13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="29" t="e">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*P13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="10" t="e">
+        <f>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19" t="e">
+        <f>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="20">
+        <f>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27" t="e">
+        <f>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15" t="e">
+        <f>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="16" t="e">
+        <f>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28">
+        <f>Эксперимент4[[#This Row],[m0
+смесь    
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="e">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*(1-P14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="29" t="e">
+        <f>Эксперимент4[[#This Row],[m0
+смесь]]*P14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="10" t="e">
+        <f>Эксперимент4[[#This Row],[m+ т
+спирт]]/Эксперимент_доп[ro 
+спирт]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="e">
+        <f>(Эксперимент4[[#This Row],[m0
+смесь]]*Эксперимент4[[#This Row],[w%
+спирт ]]-Эксперимент4[[#This Row],[m0
+спирт]])/(1-Эксперимент4[[#This Row],[w%
+спирт ]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="20">
+        <f>Эксперимент4[[#This Row],[m1
+смесь]]-Эксперимент4[[#This Row],[m0
+смесь]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f>Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <f>Эксперимент4[[#This Row],[m2
+смесь
+стакан]]-Эксперимент4[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27" t="e">
+        <f>(Эксперимент4[[#This Row],[m0
+спирт]]+Эксперимент4[[#This Row],[m+
+спирт]])/Эксперимент4[[#This Row],[m2
+смесь]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь    
+пик ]]-Эксперимент4[[#This Row],[m3 г
+пик]]</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f>Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[V пик мл]</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="15" t="e">
+        <f>Эксперимент4[[#This Row],[w%1 
+]]*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="16" t="e">
+        <f>(1-Эксперимент4[[#This Row],[w%1 
+]])*Эксперимент4[[#This Row],[m3 г
+смесь     ]]/Плотности_доп[M PETA г/моль]*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2153,15 +3331,20 @@
     <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="3">
+  <ignoredErrors>
+    <ignoredError sqref="F4:G4 F11:G11" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>